--- a/Fase 2/Evidencias Proyecto/Sprint 2/Sprint planning y Backlog 2.xlsx
+++ b/Fase 2/Evidencias Proyecto/Sprint 2/Sprint planning y Backlog 2.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
   <si>
     <t>Número</t>
   </si>
@@ -20,40 +20,58 @@
     <t>Historia de usuario</t>
   </si>
   <si>
-    <t>H04</t>
+    <t>E01-H01</t>
+  </si>
+  <si>
+    <t>Como usuario quiero poder acceder al sistema mediante un formulario de inicio de sesión para poder acceder a las funciones del sistema.</t>
+  </si>
+  <si>
+    <t>E01-H03</t>
+  </si>
+  <si>
+    <t>Como usuario quiero poder restablecer mi contraseña en caso de olvido o pérdida.</t>
+  </si>
+  <si>
+    <t>E02-H04</t>
   </si>
   <si>
     <t>Como paciente quiero poder agendar una cita medica para no tener que ir a pedirla presencial.</t>
   </si>
   <si>
-    <t>H05</t>
+    <t>E02-H05</t>
   </si>
   <si>
     <t>Como paciente quiero poder modificar la fecha de mis citas medica para tener un control claro de mi agenda diaria.</t>
   </si>
   <si>
-    <t>H06</t>
+    <t>E02-H06</t>
   </si>
   <si>
     <t>Como paciente quiero poder cancelar mi cita medica para atender otros asuntos.</t>
   </si>
   <si>
-    <t>H09</t>
+    <t>E03-H09</t>
   </si>
   <si>
     <t>Como paciente quiero poder acceder a mi historial medico para tener un seguimiento de mi salud.</t>
   </si>
   <si>
-    <t>H10</t>
-  </si>
-  <si>
-    <t>Como paciente quiero poder acceder a mi historial medico para poder descargar informes y recetas.</t>
-  </si>
-  <si>
-    <t>H13</t>
-  </si>
-  <si>
-    <t>Como paciente quiero poder recibir mis recetas médicas electrónicas después de una consulta para no depender de formatos físicos y acceder a ellas en cualquier momento.</t>
+    <t>E03-H10</t>
+  </si>
+  <si>
+    <t>Como paciente quiero poder acceder a mi historial medico para poder ver el detalle de mi cita.</t>
+  </si>
+  <si>
+    <t>E06-H19</t>
+  </si>
+  <si>
+    <t>Como usuario quiero poder ver un mapa de ubicación en la página de contacto para poder ubicar fácilmente la dirección física del centro medico.</t>
+  </si>
+  <si>
+    <t>E08-H23</t>
+  </si>
+  <si>
+    <t>Como usuario quiero que el sistema se adapte correctamente a cualquier dispositivo electrónico en el que lo esté visualizando para tener una experiencia de usuario consistente y cómoda.</t>
   </si>
   <si>
     <t>Prioridad</t>
@@ -62,41 +80,35 @@
     <t>Alta</t>
   </si>
   <si>
-    <t>H01</t>
-  </si>
-  <si>
-    <t>Como usuario quiero poder acceder al sistema mediante un formulario de inicio de sesión para poder acceder a las funciones del sistema.</t>
-  </si>
-  <si>
-    <t>H03</t>
-  </si>
-  <si>
-    <t>Como usuario quiero poder restablecer mi contraseña en caso de olvido o pérdida.</t>
-  </si>
-  <si>
-    <t>H22</t>
-  </si>
-  <si>
-    <t>Como usuario quiero poder ver un mapa de ubicación en la página de contacto para poder ubicar fácilmente la dirección física del centro medico.</t>
-  </si>
-  <si>
-    <t>H26</t>
-  </si>
-  <si>
-    <t>Como usuario quiero que el sistema se adapte correctamente a cualquier dispositivo electrónico en el que lo esté visualizando para tener una experiencia de usuario consistente y cómoda.</t>
-  </si>
-  <si>
     <t>Media</t>
   </si>
   <si>
     <t>Baja</t>
+  </si>
+  <si>
+    <t>Horas</t>
+  </si>
+  <si>
+    <t>8 hrs</t>
+  </si>
+  <si>
+    <t>5 hrs</t>
+  </si>
+  <si>
+    <t>13 hrs</t>
+  </si>
+  <si>
+    <t>1 hrs</t>
+  </si>
+  <si>
+    <t>3 hrs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -111,6 +123,11 @@
     <font>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -177,7 +194,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -190,19 +207,25 @@
     <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="4" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -511,6 +534,42 @@
       <c r="E9" s="3"/>
       <c r="F9" s="4"/>
     </row>
+    <row r="10">
+      <c r="A10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="4"/>
+    </row>
     <row r="17">
       <c r="A17" s="1" t="s">
         <v>0</v>
@@ -533,32 +592,53 @@
       <c r="G17" s="7" t="s">
         <v>12</v>
       </c>
+      <c r="H17" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>15</v>
+        <v>21</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="10">
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B12:F12"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="B5:F5"/>
@@ -581,7 +661,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="6" max="6" width="18.25"/>
+    <col customWidth="1" min="6" max="6" width="12.0"/>
   </cols>
   <sheetData>
     <row r="4">
@@ -598,10 +678,10 @@
     </row>
     <row r="5">
       <c r="A5" s="5" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -610,10 +690,10 @@
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -622,10 +702,10 @@
     </row>
     <row r="7">
       <c r="A7" s="5" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -634,10 +714,10 @@
     </row>
     <row r="8">
       <c r="A8" s="5" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -646,10 +726,10 @@
     </row>
     <row r="9">
       <c r="A9" s="5" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -658,10 +738,10 @@
     </row>
     <row r="10">
       <c r="A10" s="5" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -670,10 +750,10 @@
     </row>
     <row r="11">
       <c r="A11" s="5" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -682,10 +762,10 @@
     </row>
     <row r="12">
       <c r="A12" s="5" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -694,68 +774,165 @@
     </row>
     <row r="13">
       <c r="A13" s="5" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14">
-      <c r="A14" s="5" t="s">
+    <row r="20">
+      <c r="A20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="4"/>
+      <c r="H20" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J21" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B25" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="B33" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>24</v>
+      <c r="B34" s="11" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="10">
     <mergeCell ref="B11:F11"/>
     <mergeCell ref="B12:F12"/>
     <mergeCell ref="B13:F13"/>
-    <mergeCell ref="B14:F14"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="B5:F5"/>
     <mergeCell ref="B6:F6"/>
